--- a/Simple/datas/Testdata_new.xlsx
+++ b/Simple/datas/Testdata_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aut\Simple\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abivp\IdeaProjects\Simple\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48710FF-A981-4EC4-9106-E50720F2802D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081885A-33EA-47BE-B34E-7C6C042E400D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Catalog#</t>
   </si>
   <si>
-    <t>Test01</t>
-  </si>
-  <si>
     <t>lenproautomation8@lenqat.com</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
     <t>10T46</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>PageTitle</t>
   </si>
   <si>
@@ -99,7 +99,7 @@
     <t>H22J38BABC</t>
   </si>
   <si>
-    <t>N</t>
+    <t>PLP_TC_01</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,10 +542,10 @@
     </row>
     <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -554,16 +554,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -572,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
